--- a/Excel/Inventario.xlsx
+++ b/Excel/Inventario.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inacapmailcl-my.sharepoint.com/personal/juan_erices04_inacapmail_cl/Documents/Desktop/acceso_panol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inacapmailcl-my.sharepoint.com/personal/juan_erices04_inacapmail_cl/Documents/Desktop/Ficheros Panol/reconocimiento_facial_insumos/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_946C8F9C91F7436719BEC114DF8008236A665B42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD4928A7-D135-4BCC-B080-75FA3920E5E0}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_946C8F9C91F7436719BEC114DF8008236A665B42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A68838-BF31-4B01-93FC-E0C256DC8E78}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Análisis</t>
   </si>
@@ -200,6 +213,15 @@
   </si>
   <si>
     <t>Sierra electrica</t>
+  </si>
+  <si>
+    <t>Actuales</t>
+  </si>
+  <si>
+    <t>Existencias</t>
+  </si>
+  <si>
+    <t>Salidas</t>
   </si>
 </sst>
 </file>
@@ -256,7 +278,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -287,16 +312,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAA71FDA-3F3B-413C-A6A9-32E16306DA2F}" name="Tabla1" displayName="Tabla1" ref="A1:B55" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B55" xr:uid="{FAA71FDA-3F3B-413C-A6A9-32E16306DA2F}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAA71FDA-3F3B-413C-A6A9-32E16306DA2F}" name="Tabla1" displayName="Tabla1" ref="A1:E55" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E55" xr:uid="{FAA71FDA-3F3B-413C-A6A9-32E16306DA2F}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5F3CBBF7-F94A-4689-9042-4369A8D2F49F}" name="Categoria"/>
     <tableColumn id="2" xr3:uid="{CD7582D6-A22E-4140-900D-99A273CCC885}" name="Herramientas"/>
+    <tableColumn id="3" xr3:uid="{ABF2CB1B-0A50-4E7E-A3F5-AC8A4A289F1C}" name="Existencias"/>
+    <tableColumn id="4" xr3:uid="{4BD46437-EC36-4A27-BF1D-BCEA5369C0E0}" name="Salidas"/>
+    <tableColumn id="5" xr3:uid="{FD4D8293-EB89-4712-A7CA-BAA890CB50D3}" name="Actuales" dataDxfId="0">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,8 +531,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -515,307 +541,843 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>59</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f>Tabla1[[#This Row],[Existencias]]-Tabla1[[#This Row],[Salidas]]</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
